--- a/app/Licenciatura_em_Estatistica_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Estatistica_Pos_Laboral.xlsx
@@ -75,1490 +75,6 @@
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="493">
-  <si>
-    <t>UNIVERSIDADE EDUARDO MONDLANE</t>
-  </si>
-  <si>
-    <t>BOLETIM DE MATRÍCULA</t>
-  </si>
-  <si>
-    <t>Faculdade de Letras e Ciencias Sociais</t>
-  </si>
-  <si>
-    <t>Licenciatura em Administração Pública</t>
-  </si>
-  <si>
-    <t>Ano Lectivo:</t>
-  </si>
-  <si>
-    <t>Número de Estudante:</t>
-  </si>
-  <si>
-    <t>I.DADOS PESSOAIS</t>
-  </si>
-  <si>
-    <t>Apelido</t>
-  </si>
-  <si>
-    <t>Leonardo</t>
-  </si>
-  <si>
-    <t>Nome Completo</t>
-  </si>
-  <si>
-    <t>Elisio</t>
-  </si>
-  <si>
-    <t>Data de Nascimento</t>
-  </si>
-  <si>
-    <t>Filho de</t>
-  </si>
-  <si>
-    <t>E de</t>
-  </si>
-  <si>
-    <t>Natural de</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Nacionalidade</t>
-  </si>
-  <si>
-    <t>Estado Civil</t>
-  </si>
-  <si>
-    <t>Documento de Identificação</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Emitido Por</t>
-  </si>
-  <si>
-    <t>Em</t>
-  </si>
-  <si>
-    <t>II.ENDEREÇO - TEMPO LECTIVO</t>
-  </si>
-  <si>
-    <t>Distrito</t>
-  </si>
-  <si>
-    <t>Bairro</t>
-  </si>
-  <si>
-    <t>Rua</t>
-  </si>
-  <si>
-    <t>Celular</t>
-  </si>
-  <si>
-    <t>Número</t>
-  </si>
-  <si>
-    <t>Telefone Fixo</t>
-  </si>
-  <si>
-    <t>Quarteirão</t>
-  </si>
-  <si>
-    <t>Tel. Emergencia</t>
-  </si>
-  <si>
-    <t>III. HISTORIAL ACADÉMICO</t>
-  </si>
-  <si>
-    <t>Ano de conclusão do nível anterior</t>
-  </si>
-  <si>
-    <t>Nota Final</t>
-  </si>
-  <si>
-    <t>Local de Conclusão</t>
-  </si>
-  <si>
-    <t>Província</t>
-  </si>
-  <si>
-    <t>IV. COMPROMISSO DE HONRA</t>
-  </si>
-  <si>
-    <t>Juro por minhha honra que todos os dados são verdadeiros e fidedignos</t>
-  </si>
-  <si>
-    <t>Data automática</t>
-  </si>
-  <si>
-    <t>Assinatura do estudante</t>
-  </si>
-  <si>
-    <t>_______________________________________________________</t>
-  </si>
-  <si>
-    <t>Universidade Eduardo Mondlane</t>
-  </si>
-  <si>
-    <t>Faculdade de Ciências</t>
-  </si>
-  <si>
-    <t>Licenciatura em Estatística (Pós Laboral)</t>
-  </si>
-  <si>
-    <t>Timane</t>
-  </si>
-  <si>
-    <t>Geronimo Azarias</t>
-  </si>
-  <si>
-    <t>1990-04-29</t>
-  </si>
-  <si>
-    <t>Azarias Timane</t>
-  </si>
-  <si>
-    <t>Vasta Rafael Munguambe</t>
-  </si>
-  <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Moçambique</t>
-  </si>
-  <si>
-    <t>Solteiro</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>110204538083S</t>
-  </si>
-  <si>
-    <t>+258827134487</t>
-  </si>
-  <si>
-    <t>Escola Anglicana S.Cipriano</t>
-  </si>
-  <si>
-    <t>Tembe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo Jacob </t>
-  </si>
-  <si>
-    <t>1990-11-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacob Dinis Tembe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julieta Nhantsave </t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
-    <t>110101879625P</t>
-  </si>
-  <si>
-    <t>+258844533872</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Eduardo Mondlane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Jorge </t>
-  </si>
-  <si>
-    <t>1996-01-16</t>
-  </si>
-  <si>
-    <t>Jorge Tembe</t>
-  </si>
-  <si>
-    <t>Percina Malendza</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
-    <t>1101046993375P</t>
-  </si>
-  <si>
-    <t>+258824719363</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Laulane</t>
-  </si>
-  <si>
-    <t>Sevene</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benedita Ernesto </t>
-  </si>
-  <si>
-    <t>1985-01-21</t>
-  </si>
-  <si>
-    <t>Ernesto Sevene</t>
-  </si>
-  <si>
-    <t>Felizarda Romeu</t>
-  </si>
-  <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>110102297707C</t>
-  </si>
-  <si>
-    <t>+258849904710</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Matola</t>
-  </si>
-  <si>
-    <t>Savanguane</t>
-  </si>
-  <si>
-    <t>Cesar Daniel</t>
-  </si>
-  <si>
-    <t>1972-04-23</t>
-  </si>
-  <si>
-    <t>Daniel Jose</t>
-  </si>
-  <si>
-    <t>Adelina Patepate</t>
-  </si>
-  <si>
-    <t>110101916430P</t>
-  </si>
-  <si>
-    <t>+258820579380</t>
-  </si>
-  <si>
-    <t>Escola Josina Machel</t>
-  </si>
-  <si>
-    <t>Samussodine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tania Sadrudine </t>
-  </si>
-  <si>
-    <t>1990-06-22</t>
-  </si>
-  <si>
-    <t>Sadrudine Samussodine Saidumia</t>
-  </si>
-  <si>
-    <t>Elisa Sumburane S.como</t>
-  </si>
-  <si>
-    <t>110104338295B</t>
-  </si>
-  <si>
-    <t>+258823918905</t>
-  </si>
-  <si>
-    <t>Sambo</t>
-  </si>
-  <si>
-    <t>Daniel Antonio</t>
-  </si>
-  <si>
-    <t>1994-02-04</t>
-  </si>
-  <si>
-    <t>Antonio Sambo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Francisco Tlemo </t>
-  </si>
-  <si>
-    <t>110400192695J</t>
-  </si>
-  <si>
-    <t>+258840521588</t>
-  </si>
-  <si>
-    <t>Pereira</t>
-  </si>
-  <si>
-    <t>João Luis</t>
-  </si>
-  <si>
-    <t>1977-12-20</t>
-  </si>
-  <si>
-    <t>JoÃo Bap. Luis Pereira</t>
-  </si>
-  <si>
-    <t>Maria Marta JÓ Castigo</t>
-  </si>
-  <si>
-    <t>Casado</t>
-  </si>
-  <si>
-    <t>110100098155Q</t>
-  </si>
-  <si>
-    <t>+258842912630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parruque </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mussagy Joaquim </t>
-  </si>
-  <si>
-    <t>1990-10-07</t>
-  </si>
-  <si>
-    <t>Joaquim Ricardo Micas Parruque</t>
-  </si>
-  <si>
-    <t>CecÍlia AntÓnio Chicane</t>
-  </si>
-  <si>
-    <t>110101341862S</t>
-  </si>
-  <si>
-    <t>+258822753800</t>
-  </si>
-  <si>
-    <t>Outra - Prov Maputo</t>
-  </si>
-  <si>
-    <t>Nzucule</t>
-  </si>
-  <si>
-    <t>Santos Daniel</t>
-  </si>
-  <si>
-    <t>1994-07-20</t>
-  </si>
-  <si>
-    <t>Daniel Laquico Nzucule</t>
-  </si>
-  <si>
-    <t>Amina Rulanhane Vilanculo</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
-    <t>110302402386J</t>
-  </si>
-  <si>
-    <t>+258824840736</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Noroeste 1</t>
-  </si>
-  <si>
-    <t>Nhantumbo</t>
-  </si>
-  <si>
-    <t>Hermilda Madalena</t>
-  </si>
-  <si>
-    <t>1991-07-23</t>
-  </si>
-  <si>
-    <t>Domingos  Nhantumbo</t>
-  </si>
-  <si>
-    <t>Angelica Salomone Tuziane</t>
-  </si>
-  <si>
-    <t>110100723559J</t>
-  </si>
-  <si>
-    <t>+258824247559</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Lhanguene</t>
-  </si>
-  <si>
-    <t>Nhanrave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xavier Jaime </t>
-  </si>
-  <si>
-    <t>1988-10-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaime Xavier </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuela JosÉ Bau </t>
-  </si>
-  <si>
-    <t>080100254720B</t>
-  </si>
-  <si>
-    <t>+258845917876</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Emilia Dausse</t>
-  </si>
-  <si>
-    <t>Nhaduate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baptista Antonio </t>
-  </si>
-  <si>
-    <t>1990-01-05</t>
-  </si>
-  <si>
-    <t>AntÓnio Samussone Nhaduate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elina Pedro Nhocue </t>
-  </si>
-  <si>
-    <t>Distrito de Inharrime</t>
-  </si>
-  <si>
-    <t>080500988053B</t>
-  </si>
-  <si>
-    <t>+258825123119</t>
-  </si>
-  <si>
-    <t>Nhabete</t>
-  </si>
-  <si>
-    <t>Marla Carlos</t>
-  </si>
-  <si>
-    <t>1989-05-05</t>
-  </si>
-  <si>
-    <t>Carlos Zononduane Nhabete</t>
-  </si>
-  <si>
-    <t>Elina Mateus Honwana</t>
-  </si>
-  <si>
-    <t>110100334258A</t>
-  </si>
-  <si>
-    <t>+258827751799</t>
-  </si>
-  <si>
-    <t>Nhabangue</t>
-  </si>
-  <si>
-    <t>Altino Americo</t>
-  </si>
-  <si>
-    <t>1994-02-25</t>
-  </si>
-  <si>
-    <t>Americo Tomas Nhabangue</t>
-  </si>
-  <si>
-    <t>Cristina Antonio Chiuro</t>
-  </si>
-  <si>
-    <t>Talao de Carta de Conducao</t>
-  </si>
-  <si>
-    <t>+258849497740</t>
-  </si>
-  <si>
-    <t>Outra - Cid.Maputo</t>
-  </si>
-  <si>
-    <t>Munguambe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nercia Constantino </t>
-  </si>
-  <si>
-    <t>1993-07-25</t>
-  </si>
-  <si>
-    <t>Constantino Jossias Mungambe</t>
-  </si>
-  <si>
-    <t>Perpetua Pedro Nhambaval</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
-    <t>110101264257M</t>
-  </si>
-  <si>
-    <t>+258842454567</t>
-  </si>
-  <si>
-    <t>Mulungo</t>
-  </si>
-  <si>
-    <t>Africa Carlos Mulungo</t>
-  </si>
-  <si>
-    <t>1987-05-23</t>
-  </si>
-  <si>
-    <t>Carlos Mulungo</t>
-  </si>
-  <si>
-    <t>Maria Alfredo</t>
-  </si>
-  <si>
-    <t>100102498499P</t>
-  </si>
-  <si>
-    <t>+258824973875</t>
-  </si>
-  <si>
-    <t>Mula</t>
-  </si>
-  <si>
-    <t>Miguel Pedro</t>
-  </si>
-  <si>
-    <t>1994-05-17</t>
-  </si>
-  <si>
-    <t>Pedro Alberto Mula</t>
-  </si>
-  <si>
-    <t>Celina Covane</t>
-  </si>
-  <si>
-    <t>110102176445J</t>
-  </si>
-  <si>
-    <t>+258820452629</t>
-  </si>
-  <si>
-    <t>Mouzinho</t>
-  </si>
-  <si>
-    <t>Cristiano Ramiro</t>
-  </si>
-  <si>
-    <t>1993-09-24</t>
-  </si>
-  <si>
-    <t>Ramiro Paulo Rafael Mouzinho</t>
-  </si>
-  <si>
-    <t>Leopoldina Ester Micas</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
-    <t>110200572164B</t>
-  </si>
-  <si>
-    <t>+258821445671</t>
-  </si>
-  <si>
-    <t>Mbayila</t>
-  </si>
-  <si>
-    <t>Telma Armando</t>
-  </si>
-  <si>
-    <t>1994-04-28</t>
-  </si>
-  <si>
-    <t>Armando Mbayila</t>
-  </si>
-  <si>
-    <t>Matilde ManhiÇa</t>
-  </si>
-  <si>
-    <t>110101489069C</t>
-  </si>
-  <si>
-    <t>+258824693639</t>
-  </si>
-  <si>
-    <t>Matine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ernesto AntÓnio </t>
-  </si>
-  <si>
-    <t>1988-11-14</t>
-  </si>
-  <si>
-    <t>Antonio  AndrÉ Matine</t>
-  </si>
-  <si>
-    <t>Amelia Paulo Guambe</t>
-  </si>
-  <si>
-    <t>110101136636B</t>
-  </si>
-  <si>
-    <t>+258841342630</t>
-  </si>
-  <si>
-    <t>Mathe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eugenio Lourenco </t>
-  </si>
-  <si>
-    <t>1991-11-17</t>
-  </si>
-  <si>
-    <t>Lourenco Eugenio Mathe</t>
-  </si>
-  <si>
-    <t>Alberta Elisa Muhai</t>
-  </si>
-  <si>
-    <t>100100551759A</t>
-  </si>
-  <si>
-    <t>+258825233091</t>
-  </si>
-  <si>
-    <t>Maquena</t>
-  </si>
-  <si>
-    <t>Telma Luisa Samuel Anglaze Maquena</t>
-  </si>
-  <si>
-    <t>1978-05-11</t>
-  </si>
-  <si>
-    <t>Celestino E. Anglaze</t>
-  </si>
-  <si>
-    <t>Maria Luisa Samuel</t>
-  </si>
-  <si>
-    <t>110100113092B</t>
-  </si>
-  <si>
-    <t>+258824414910</t>
-  </si>
-  <si>
-    <t>Instituto Industrial de Maputo</t>
-  </si>
-  <si>
-    <t>Mapengo</t>
-  </si>
-  <si>
-    <t>Lucas Emidio</t>
-  </si>
-  <si>
-    <t>1988-06-29</t>
-  </si>
-  <si>
-    <t>Martins Lucas Mapengo</t>
-  </si>
-  <si>
-    <t>Maria Majajane Tembe</t>
-  </si>
-  <si>
-    <t>110102633289A</t>
-  </si>
-  <si>
-    <t>+258829016372</t>
-  </si>
-  <si>
-    <t>Manhique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santos Alexandre </t>
-  </si>
-  <si>
-    <t>1990-05-24</t>
-  </si>
-  <si>
-    <t>Aexandre Manhique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alzira Santos Bahule </t>
-  </si>
-  <si>
-    <t>Cartao de Eleitor</t>
-  </si>
-  <si>
-    <t>10232187/1</t>
-  </si>
-  <si>
-    <t>+258827833663</t>
-  </si>
-  <si>
-    <t>Escola Francisco Manyanga</t>
-  </si>
-  <si>
-    <t>Anelio Francisco Manhique</t>
-  </si>
-  <si>
-    <t>1990-01-28</t>
-  </si>
-  <si>
-    <t>Francisco Benjamim Manhiqui</t>
-  </si>
-  <si>
-    <t>Fatima Mahene Ndjango</t>
-  </si>
-  <si>
-    <t>110104366667M</t>
-  </si>
-  <si>
-    <t>+258827853996</t>
-  </si>
-  <si>
-    <t>Escola Sec Armando Emilio Guebuza</t>
-  </si>
-  <si>
-    <t>Mahuai</t>
-  </si>
-  <si>
-    <t>DelÍcia Mevassane Alfredo</t>
-  </si>
-  <si>
-    <t>1990-09-02</t>
-  </si>
-  <si>
-    <t>Alfredo Filipe Buducane Mahuai</t>
-  </si>
-  <si>
-    <t>Aurora Silvestre Muchave</t>
-  </si>
-  <si>
-    <t>110300183029M</t>
-  </si>
-  <si>
-    <t>+258821855044</t>
-  </si>
-  <si>
-    <t>Machabana</t>
-  </si>
-  <si>
-    <t>Mpho Rildo</t>
-  </si>
-  <si>
-    <t>1992-03-07</t>
-  </si>
-  <si>
-    <t>Rildo Antonio Machabana</t>
-  </si>
-  <si>
-    <t>Paulina Jose Machaieie</t>
-  </si>
-  <si>
-    <t>110102281232Q</t>
-  </si>
-  <si>
-    <t>+258825222408</t>
-  </si>
-  <si>
-    <t>Mabunda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra JoÃo </t>
-  </si>
-  <si>
-    <t>1995-06-16</t>
-  </si>
-  <si>
-    <t>JoÃo Mabunda</t>
-  </si>
-  <si>
-    <t>110501679657A</t>
-  </si>
-  <si>
-    <t>+258848034770</t>
-  </si>
-  <si>
-    <t>Gertrudes Sheilla Domingos</t>
-  </si>
-  <si>
-    <t>1989-08-15</t>
-  </si>
-  <si>
-    <t>Domingos Mabunda</t>
-  </si>
-  <si>
-    <t>Ines Simbine</t>
-  </si>
-  <si>
-    <t>110100231353M</t>
-  </si>
-  <si>
-    <t>+258825775145</t>
-  </si>
-  <si>
-    <t>Mabasso</t>
-  </si>
-  <si>
-    <t>Paulo Lopes</t>
-  </si>
-  <si>
-    <t>1990-07-06</t>
-  </si>
-  <si>
-    <t>Lopes Paulo Mabasso</t>
-  </si>
-  <si>
-    <t>Ana Nhantumbo</t>
-  </si>
-  <si>
-    <t>110204952111F</t>
-  </si>
-  <si>
-    <t>+258820797241</t>
-  </si>
-  <si>
-    <t>Escola Secundaria da Zona-Verde</t>
-  </si>
-  <si>
-    <t>Limeme</t>
-  </si>
-  <si>
-    <t>Justino Viriato</t>
-  </si>
-  <si>
-    <t>1989-07-26</t>
-  </si>
-  <si>
-    <t>Viriato Pagone Limeme</t>
-  </si>
-  <si>
-    <t>Maria Leao Cumbane</t>
-  </si>
-  <si>
-    <t>+258825508513</t>
-  </si>
-  <si>
-    <t>João</t>
-  </si>
-  <si>
-    <t>Idília Da Graça Augusto</t>
-  </si>
-  <si>
-    <t>1991-02-07</t>
-  </si>
-  <si>
-    <t>RaÚl JoÃo Tinga</t>
-  </si>
-  <si>
-    <t>Judite Augusto Canda</t>
-  </si>
-  <si>
-    <t>110100135106Q</t>
-  </si>
-  <si>
-    <t>+258824189710</t>
-  </si>
-  <si>
-    <t>Jamine</t>
-  </si>
-  <si>
-    <t>Argentina Alfredo</t>
-  </si>
-  <si>
-    <t>1995-05-13</t>
-  </si>
-  <si>
-    <t>Alfredo Feliciano Jamine</t>
-  </si>
-  <si>
-    <t>Joana Jorge Machiana</t>
-  </si>
-  <si>
-    <t>110101340640B</t>
-  </si>
-  <si>
-    <t>+258820100026</t>
-  </si>
-  <si>
-    <t>Ibraimo</t>
-  </si>
-  <si>
-    <t>Abdala</t>
-  </si>
-  <si>
-    <t>1989-12-27</t>
-  </si>
-  <si>
-    <t>Ibraimo Abdala</t>
-  </si>
-  <si>
-    <t>Fatima Saide</t>
-  </si>
-  <si>
-    <t>020100255890S</t>
-  </si>
-  <si>
-    <t>+258828066266</t>
-  </si>
-  <si>
-    <t>Escola Secundaria de Pemba</t>
-  </si>
-  <si>
-    <t>Guilundo</t>
-  </si>
-  <si>
-    <t>Ascardine Armindo</t>
-  </si>
-  <si>
-    <t>1988-10-15</t>
-  </si>
-  <si>
-    <t>Armindo Fernando</t>
-  </si>
-  <si>
-    <t>Hirondina Andre</t>
-  </si>
-  <si>
-    <t>100101893353P</t>
-  </si>
-  <si>
-    <t>+258845781213</t>
-  </si>
-  <si>
-    <t>Guilengue</t>
-  </si>
-  <si>
-    <t>Jose Oscar</t>
-  </si>
-  <si>
-    <t>1977-12-17</t>
-  </si>
-  <si>
-    <t>Jose Milice Guilengue</t>
-  </si>
-  <si>
-    <t>Ana Faife</t>
-  </si>
-  <si>
-    <t>Distrito Municipal Kanyaka</t>
-  </si>
-  <si>
-    <t>110200186210N</t>
-  </si>
-  <si>
-    <t>+258827930660</t>
-  </si>
-  <si>
-    <t>Instituto Comercial de Maputo</t>
-  </si>
-  <si>
-    <t>Fuele</t>
-  </si>
-  <si>
-    <t>Isac SalomÃo</t>
-  </si>
-  <si>
-    <t>1982-02-26</t>
-  </si>
-  <si>
-    <t>SalomÃo Fuele</t>
-  </si>
-  <si>
-    <t>Marta Machaieie</t>
-  </si>
-  <si>
-    <t>+258845442144</t>
-  </si>
-  <si>
-    <t>Filipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClÁudio Samuel  </t>
-  </si>
-  <si>
-    <t>1978-01-21</t>
-  </si>
-  <si>
-    <t>Samuel Filipe</t>
-  </si>
-  <si>
-    <t>Isabel Albino Monjane</t>
-  </si>
-  <si>
-    <t>110100234280M</t>
-  </si>
-  <si>
-    <t>+848171000</t>
-  </si>
-  <si>
-    <t>Escola Secundaria Joaquim Chissano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ferreira </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natacha MarÍlia Da Silva </t>
-  </si>
-  <si>
-    <t>1986-08-04</t>
-  </si>
-  <si>
-    <t>Isaura Lucilia Francisco Langa</t>
-  </si>
-  <si>
-    <t>MÁrio JoÃo Da Silva Ferreira</t>
-  </si>
-  <si>
-    <t>110102689547P</t>
-  </si>
-  <si>
-    <t>+258846193428</t>
-  </si>
-  <si>
-    <t>Liceu Alvorada</t>
-  </si>
-  <si>
-    <t>Dima</t>
-  </si>
-  <si>
-    <t>Maria Adelino</t>
-  </si>
-  <si>
-    <t>1992-10-31</t>
-  </si>
-  <si>
-    <t>Adelino Pedro Dima</t>
-  </si>
-  <si>
-    <t>Maria Alberto Maposse</t>
-  </si>
-  <si>
-    <t>100100886277B</t>
-  </si>
-  <si>
-    <t>+258829021323</t>
-  </si>
-  <si>
-    <t>Dava</t>
-  </si>
-  <si>
-    <t>Rafael Manuel</t>
-  </si>
-  <si>
-    <t>1997-02-07</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Suzete Zulmira Dava</t>
-  </si>
-  <si>
-    <t>110100365211C</t>
-  </si>
-  <si>
-    <t>+258820523082</t>
-  </si>
-  <si>
-    <t>Cuna</t>
-  </si>
-  <si>
-    <t>Odete  Filimao</t>
-  </si>
-  <si>
-    <t>1992-09-30</t>
-  </si>
-  <si>
-    <t>Filimao N. Cuna</t>
-  </si>
-  <si>
-    <t>Maria A. Massingue</t>
-  </si>
-  <si>
-    <t>100101559258C</t>
-  </si>
-  <si>
-    <t>+258827787757</t>
-  </si>
-  <si>
-    <t>Cumbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anibal Banito Alfredo </t>
-  </si>
-  <si>
-    <t>1984-08-16</t>
-  </si>
-  <si>
-    <t>Alfredo Jaime Cumbe</t>
-  </si>
-  <si>
-    <t>Olga Jeremias Langa</t>
-  </si>
-  <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
-    <t>110501816942C</t>
-  </si>
-  <si>
-    <t>+258829010625</t>
-  </si>
-  <si>
-    <t>Cossa</t>
-  </si>
-  <si>
-    <t>OnÉlio Hermenegildo</t>
-  </si>
-  <si>
-    <t>1990-06-05</t>
-  </si>
-  <si>
-    <t>Hermenegildo Chefo Cossa</t>
-  </si>
-  <si>
-    <t>Suzana Helena Malate</t>
-  </si>
-  <si>
-    <t>110101043205F</t>
-  </si>
-  <si>
-    <t>+258848043236</t>
-  </si>
-  <si>
-    <t>Ofelia Jose</t>
-  </si>
-  <si>
-    <t>1984-07-06</t>
-  </si>
-  <si>
-    <t>Jose Lacitela Cossa</t>
-  </si>
-  <si>
-    <t>Sara Fernando Machel</t>
-  </si>
-  <si>
-    <t>11030547129S</t>
-  </si>
-  <si>
-    <t>+258828218162</t>
-  </si>
-  <si>
-    <t>Nelson Salvador Cossa</t>
-  </si>
-  <si>
-    <t>1983-11-03</t>
-  </si>
-  <si>
-    <t>Salvador Cossa</t>
-  </si>
-  <si>
-    <t>Alice Chopo</t>
-  </si>
-  <si>
-    <t>110400287693S</t>
-  </si>
-  <si>
-    <t>+258842928577</t>
-  </si>
-  <si>
-    <t>Escola Secundaria do Xai-Xai</t>
-  </si>
-  <si>
-    <t>Fernando Domingos</t>
-  </si>
-  <si>
-    <t>1990-08-09</t>
-  </si>
-  <si>
-    <t>Domingos Cossa</t>
-  </si>
-  <si>
-    <t>Eugenia Guimaraes</t>
-  </si>
-  <si>
-    <t>110300266383Q</t>
-  </si>
-  <si>
-    <t>+258826269630</t>
-  </si>
-  <si>
-    <t>Abrantes Levi</t>
-  </si>
-  <si>
-    <t>1991-07-19</t>
-  </si>
-  <si>
-    <t>Levi Cossa</t>
-  </si>
-  <si>
-    <t>Julieta Albino Malate</t>
-  </si>
-  <si>
-    <t>110100578047A</t>
-  </si>
-  <si>
-    <t>+258840154302</t>
-  </si>
-  <si>
-    <t>Chuquela</t>
-  </si>
-  <si>
-    <t>Fernando Augusto</t>
-  </si>
-  <si>
-    <t>1984-09-29</t>
-  </si>
-  <si>
-    <t>Augusto Raimundo Chuquela</t>
-  </si>
-  <si>
-    <t>Const&amp;acirc;ncia J. Chirindza</t>
-  </si>
-  <si>
-    <t>Cidade de Inhambane</t>
-  </si>
-  <si>
-    <t>110100001601P</t>
-  </si>
-  <si>
-    <t>+258825303373</t>
-  </si>
-  <si>
-    <t>Outra - Nampula</t>
-  </si>
-  <si>
-    <t>Chilombe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfredo Nelson </t>
-  </si>
-  <si>
-    <t>1970-09-07</t>
-  </si>
-  <si>
-    <t>Nelson Chilombe</t>
-  </si>
-  <si>
-    <t>MÓnica Machemba</t>
-  </si>
-  <si>
-    <t>110100334920M</t>
-  </si>
-  <si>
-    <t>+258828391045</t>
-  </si>
-  <si>
-    <t>Escolas no Estrangeiro</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinho Armindo </t>
-  </si>
-  <si>
-    <t>1991-05-22</t>
-  </si>
-  <si>
-    <t>Armindo Oliveira Castro</t>
-  </si>
-  <si>
-    <t>Argentina Majoel Macamo</t>
-  </si>
-  <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
-    <t>100201717619C</t>
-  </si>
-  <si>
-    <t>+258820042065</t>
-  </si>
-  <si>
-    <t>Buque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anabela Daniel </t>
-  </si>
-  <si>
-    <t>1986-07-22</t>
-  </si>
-  <si>
-    <t>Daniel Matias Buque</t>
-  </si>
-  <si>
-    <t>Amelia Jonas Manhique</t>
-  </si>
-  <si>
-    <t>Distrito de Chibuto</t>
-  </si>
-  <si>
-    <t>090102130857Q</t>
-  </si>
-  <si>
-    <t>+258826192971</t>
-  </si>
-  <si>
-    <t>Boa</t>
-  </si>
-  <si>
-    <t>Simone Joe  Napoleao</t>
-  </si>
-  <si>
-    <t>1993-04-20</t>
-  </si>
-  <si>
-    <t>Napoleao Muquequenene</t>
-  </si>
-  <si>
-    <t>Felecidade Francisco</t>
-  </si>
-  <si>
-    <t>110102327563i</t>
-  </si>
-  <si>
-    <t>+258825196888</t>
-  </si>
-  <si>
-    <t>Bie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edson Luis </t>
-  </si>
-  <si>
-    <t>1992-05-12</t>
-  </si>
-  <si>
-    <t>Luis Matenjane Bie</t>
-  </si>
-  <si>
-    <t>Assucena Ernesto Vilancul</t>
-  </si>
-  <si>
-    <t>+258820897919</t>
-  </si>
-  <si>
-    <t>Benvindo</t>
-  </si>
-  <si>
-    <t>Fidelio Hilario</t>
-  </si>
-  <si>
-    <t>1993-12-09</t>
-  </si>
-  <si>
-    <t>Hilario Joaquim Benvindo</t>
-  </si>
-  <si>
-    <t>Victoria Juliao Paulino</t>
-  </si>
-  <si>
-    <t>100101193907J</t>
-  </si>
-  <si>
-    <t>+258840183350</t>
-  </si>
-  <si>
-    <t>Barreto</t>
-  </si>
-  <si>
-    <t>Marina Francisco</t>
-  </si>
-  <si>
-    <t>1989-07-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Augusto Barreto </t>
-  </si>
-  <si>
-    <t>Judite Santana Barreto</t>
-  </si>
-  <si>
-    <t>110102360910M</t>
-  </si>
-  <si>
-    <t>+258824315908</t>
-  </si>
-  <si>
-    <t>Amisse</t>
-  </si>
-  <si>
-    <t>Anastacia Chale</t>
-  </si>
-  <si>
-    <t>1995-05-06</t>
-  </si>
-  <si>
-    <t>Chale Amisse</t>
-  </si>
-  <si>
-    <t>Helena Mavota</t>
-  </si>
-  <si>
-    <t>110201433296F</t>
-  </si>
-  <si>
-    <t>+820537553</t>
-  </si>
-  <si>
-    <t>Américo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Maria </t>
-  </si>
-  <si>
-    <t>1989-11-19</t>
-  </si>
-  <si>
-    <t>AmÉrico MÁrio</t>
-  </si>
-  <si>
-    <t>Maria Domingos Matusse</t>
-  </si>
-  <si>
-    <t>110400540998J</t>
-  </si>
-  <si>
-    <t>+258847758709</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Junior</t>
-  </si>
-  <si>
-    <t>Manuel Matola Fernando Samissone</t>
-  </si>
-  <si>
-    <t>1994-02-10</t>
-  </si>
-  <si>
-    <t>Manuel Matola F. Samissone</t>
-  </si>
-  <si>
-    <t>Lurdes Manuel Muarre</t>
-  </si>
-  <si>
-    <t>100101393745B</t>
-  </si>
-  <si>
-    <t>+258843507476</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1831,291 +347,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
@@ -2816,7 +1047,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2832,7 +1063,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2848,7 +1079,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2864,7 +1095,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2880,7 +1111,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2895,9 +1126,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2905,7 +1134,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2916,7 +1145,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2925,7 +1154,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2937,7 +1166,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2945,7 +1174,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3041,7 +1270,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3084,7 +1313,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3411,7 +1640,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3427,7 +1656,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3443,7 +1672,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3459,7 +1688,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3475,7 +1704,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3490,9 +1719,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3500,7 +1727,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3511,7 +1738,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3520,7 +1747,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3532,7 +1759,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3540,7 +1767,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3636,7 +1863,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3679,7 +1906,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4006,7 +2233,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4022,7 +2249,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4038,7 +2265,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4054,7 +2281,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4070,7 +2297,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4085,9 +2312,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4095,7 +2320,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4106,7 +2331,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4115,7 +2340,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4127,7 +2352,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4135,7 +2360,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4231,7 +2456,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4274,7 +2499,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4601,7 +2826,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4617,7 +2842,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4633,7 +2858,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4649,7 +2874,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4665,7 +2890,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4680,9 +2905,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4690,7 +2913,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4701,7 +2924,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4710,7 +2933,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4722,7 +2945,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4730,7 +2953,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4826,7 +3049,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4869,7 +3092,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5196,7 +3419,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5212,7 +3435,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5228,7 +3451,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5244,7 +3467,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5260,7 +3483,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5275,9 +3498,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>151</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5285,7 +3506,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5296,7 +3517,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5305,7 +3526,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5317,7 +3538,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5325,7 +3546,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5421,7 +3642,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5464,7 +3685,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5791,7 +4012,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5807,7 +4028,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5823,7 +4044,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5839,7 +4060,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5855,7 +4076,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5870,9 +4091,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5880,7 +4099,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5891,7 +4110,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5900,7 +4119,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5912,7 +4131,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5920,7 +4139,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6016,7 +4235,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6059,7 +4278,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6386,7 +4605,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6402,7 +4621,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6418,7 +4637,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6434,7 +4653,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6450,7 +4669,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6465,9 +4684,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6475,7 +4692,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6486,7 +4703,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6495,7 +4712,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6507,7 +4724,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6611,7 +4828,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6654,7 +4871,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6981,7 +5198,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6997,7 +5214,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7013,7 +5230,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7029,7 +5246,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7045,7 +5262,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7060,9 +5277,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7070,7 +5285,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7081,7 +5296,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7090,7 +5305,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7102,7 +5317,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7110,7 +5325,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7206,7 +5421,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7249,7 +5464,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7576,7 +5791,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7592,7 +5807,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7608,7 +5823,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7624,7 +5839,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7640,7 +5855,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7655,9 +5870,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7665,7 +5878,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7676,7 +5889,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7685,7 +5898,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7697,7 +5910,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7705,7 +5918,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7801,7 +6014,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7844,7 +6057,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8171,7 +6384,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8187,7 +6400,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8203,7 +6416,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8219,7 +6432,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8235,7 +6448,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8250,9 +6463,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8260,7 +6471,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8271,7 +6482,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8280,7 +6491,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8292,7 +6503,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8300,7 +6511,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8396,7 +6607,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8439,7 +6650,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8845,9 +7056,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8855,7 +7064,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8866,7 +7075,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8875,7 +7084,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8887,7 +7096,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8895,7 +7104,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8991,7 +7200,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9034,7 +7243,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9361,7 +7570,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9377,7 +7586,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9393,7 +7602,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9409,7 +7618,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9425,7 +7634,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9440,9 +7649,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9450,7 +7657,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9461,7 +7668,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9470,7 +7677,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9482,7 +7689,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9490,7 +7697,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9586,7 +7793,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9629,7 +7836,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9956,7 +8163,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9972,7 +8179,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9988,7 +8195,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10004,7 +8211,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10020,7 +8227,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10035,9 +8242,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10045,7 +8250,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10056,7 +8261,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10065,7 +8270,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10077,7 +8282,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10085,7 +8290,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10181,7 +8386,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10224,7 +8429,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10551,7 +8756,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10567,7 +8772,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10583,7 +8788,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10599,7 +8804,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10615,7 +8820,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10630,9 +8835,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10640,7 +8843,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10651,7 +8854,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10660,7 +8863,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10672,7 +8875,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10680,7 +8883,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10776,7 +8979,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10819,7 +9022,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11146,7 +9349,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11162,7 +9365,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11178,7 +9381,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11194,7 +9397,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11210,7 +9413,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11225,9 +9428,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11235,7 +9436,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11246,7 +9447,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11255,7 +9456,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11267,7 +9468,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11275,7 +9476,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11371,7 +9572,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11414,7 +9615,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11741,7 +9942,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11757,7 +9958,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11773,7 +9974,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11789,7 +9990,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11805,7 +10006,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11820,9 +10021,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11830,7 +10029,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11841,7 +10040,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11850,7 +10049,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11862,7 +10061,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11870,7 +10069,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11966,7 +10165,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12009,7 +10208,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12336,7 +10535,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12352,7 +10551,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12368,7 +10567,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12384,7 +10583,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12400,7 +10599,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12415,9 +10614,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12425,7 +10622,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12436,7 +10633,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12445,7 +10642,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12457,7 +10654,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12465,7 +10662,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12561,7 +10758,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12604,7 +10801,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12931,7 +11128,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12947,7 +11144,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12963,7 +11160,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12979,7 +11176,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12995,7 +11192,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13010,9 +11207,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13020,7 +11215,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13031,7 +11226,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13040,7 +11235,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13052,7 +11247,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13060,7 +11255,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13156,7 +11351,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13199,7 +11394,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13526,7 +11721,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13542,7 +11737,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13558,7 +11753,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13574,7 +11769,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13590,7 +11785,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13605,9 +11800,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13615,7 +11808,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13626,7 +11819,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13635,7 +11828,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13647,7 +11840,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13655,7 +11848,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13751,7 +11944,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13794,7 +11987,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14121,7 +12314,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14137,7 +12330,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14153,7 +12346,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14169,7 +12362,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14185,7 +12378,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14200,9 +12393,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14210,7 +12401,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14221,7 +12412,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14230,7 +12421,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14242,7 +12433,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14250,7 +12441,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14346,7 +12537,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14389,7 +12580,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14716,7 +12907,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14732,7 +12923,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14748,7 +12939,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14764,7 +12955,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14780,7 +12971,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14795,9 +12986,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14805,7 +12994,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14816,7 +13005,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14825,7 +13014,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14837,7 +13026,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14845,7 +13034,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14941,7 +13130,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14984,7 +13173,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15311,7 +13500,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15327,7 +13516,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15343,7 +13532,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15359,7 +13548,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15375,7 +13564,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15390,9 +13579,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15400,7 +13587,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15411,7 +13598,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15420,7 +13607,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15432,7 +13619,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15440,7 +13627,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15536,7 +13723,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15579,7 +13766,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15906,7 +14093,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15922,7 +14109,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15938,7 +14125,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15954,7 +14141,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15983,9 +14170,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15993,7 +14178,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16004,7 +14189,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16013,7 +14198,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16025,7 +14210,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16033,7 +14218,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16129,7 +14314,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16172,7 +14357,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16499,7 +14684,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16515,7 +14700,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16531,7 +14716,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16547,7 +14732,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16563,7 +14748,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16578,9 +14763,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16588,7 +14771,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16599,7 +14782,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16608,7 +14791,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16620,7 +14803,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16628,7 +14811,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16724,7 +14907,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16767,7 +14950,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17094,7 +15277,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17110,7 +15293,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17126,7 +15309,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17142,7 +15325,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17158,7 +15341,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17173,9 +15356,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17183,7 +15364,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17194,7 +15375,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17203,7 +15384,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17215,7 +15396,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17223,7 +15404,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17319,7 +15500,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17362,7 +15543,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17689,7 +15870,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17705,7 +15886,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17721,7 +15902,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17737,7 +15918,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17753,7 +15934,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17768,9 +15949,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17778,7 +15957,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17789,7 +15968,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17798,7 +15977,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17810,7 +15989,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17914,7 +16093,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17957,7 +16136,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18284,7 +16463,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18300,7 +16479,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18316,7 +16495,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18332,7 +16511,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18348,7 +16527,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18363,9 +16542,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18373,7 +16550,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18384,7 +16561,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18393,7 +16570,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18405,7 +16582,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18413,7 +16590,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18509,7 +16686,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18552,7 +16729,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18879,7 +17056,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18895,7 +17072,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18911,7 +17088,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18927,7 +17104,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18943,7 +17120,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18958,9 +17135,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18968,7 +17143,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18979,7 +17154,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18988,7 +17163,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19000,7 +17175,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19008,7 +17183,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19104,7 +17279,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19147,7 +17322,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19474,7 +17649,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19490,7 +17665,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19506,7 +17681,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19522,7 +17697,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19538,7 +17713,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19553,9 +17728,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19563,7 +17736,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19574,7 +17747,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19583,7 +17756,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19595,7 +17768,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19603,7 +17776,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19699,7 +17872,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19742,7 +17915,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20069,7 +18242,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20085,7 +18258,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20101,7 +18274,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20117,7 +18290,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20133,7 +18306,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20148,9 +18321,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20158,7 +18329,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20169,7 +18340,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20178,7 +18349,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20190,7 +18361,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20198,7 +18369,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20294,7 +18465,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20337,7 +18508,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20664,7 +18835,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20680,7 +18851,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20696,7 +18867,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20712,7 +18883,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20728,7 +18899,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20743,9 +18914,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>325</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20753,7 +18922,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20764,7 +18933,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20773,7 +18942,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20785,7 +18954,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20793,7 +18962,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20889,7 +19058,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20932,7 +19101,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21259,7 +19428,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21275,7 +19444,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21291,7 +19460,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21307,7 +19476,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21323,7 +19492,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21338,9 +19507,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21348,7 +19515,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21359,7 +19526,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21368,7 +19535,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21380,7 +19547,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21484,7 +19651,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21527,7 +19694,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21854,7 +20021,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21870,7 +20037,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21886,7 +20053,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21902,7 +20069,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21918,7 +20085,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21933,9 +20100,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21943,7 +20108,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21954,7 +20119,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21963,7 +20128,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21975,7 +20140,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21983,7 +20148,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22079,7 +20244,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22122,7 +20287,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22449,7 +20614,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22465,7 +20630,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22481,7 +20646,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22497,7 +20662,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22513,7 +20678,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22528,9 +20693,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>174</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22538,7 +20701,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22549,7 +20712,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22558,7 +20721,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22570,7 +20733,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22578,7 +20741,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22674,7 +20837,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22717,7 +20880,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23044,7 +21207,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23060,7 +21223,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23076,7 +21239,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23092,7 +21255,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23108,7 +21271,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23123,9 +21286,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23133,7 +21294,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23144,7 +21305,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23153,7 +21314,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23165,7 +21326,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23173,7 +21334,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23269,7 +21430,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23312,7 +21473,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23639,7 +21800,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23655,7 +21816,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23671,7 +21832,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23687,7 +21848,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23703,7 +21864,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23718,9 +21879,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23728,7 +21887,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23739,7 +21898,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23748,7 +21907,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23760,7 +21919,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23768,7 +21927,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -23864,7 +22023,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23907,7 +22066,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24234,7 +22393,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24250,7 +22409,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24266,7 +22425,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24282,7 +22441,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24298,7 +22457,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24313,9 +22472,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24323,7 +22480,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24334,7 +22491,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24343,7 +22500,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24355,7 +22512,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24363,7 +22520,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24459,7 +22616,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24502,7 +22659,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24829,7 +22986,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24845,7 +23002,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24861,7 +23018,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24877,7 +23034,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24893,7 +23050,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24908,9 +23065,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24918,7 +23073,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24929,7 +23084,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24938,7 +23093,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24950,7 +23105,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24958,7 +23113,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25054,7 +23209,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25097,7 +23252,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25424,7 +23579,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25440,7 +23595,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25456,7 +23611,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25472,7 +23627,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25488,7 +23643,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25503,9 +23658,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>377</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25513,7 +23666,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25524,7 +23677,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25533,7 +23686,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25545,7 +23698,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25553,7 +23706,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25649,7 +23802,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25692,7 +23845,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26019,7 +24172,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26035,7 +24188,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26051,7 +24204,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26067,7 +24220,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26083,7 +24236,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26098,9 +24251,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26108,7 +24259,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26119,7 +24270,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26128,7 +24279,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26140,7 +24291,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26148,7 +24299,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26244,7 +24395,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26287,7 +24438,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -26614,7 +24765,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -26630,7 +24781,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -26646,7 +24797,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -26662,7 +24813,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -26678,7 +24829,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -26693,9 +24844,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -26703,7 +24852,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -26714,7 +24863,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -26723,7 +24872,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -26735,7 +24884,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -26743,7 +24892,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -26839,7 +24988,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -26882,7 +25031,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27209,7 +25358,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27225,7 +25374,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27241,7 +25390,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27257,7 +25406,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27273,7 +25422,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27288,9 +25437,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27298,7 +25445,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27309,7 +25456,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27318,7 +25465,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27330,7 +25477,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27338,7 +25485,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -27434,7 +25581,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -27477,7 +25624,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -27804,7 +25951,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -27820,7 +25967,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -27836,7 +25983,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -27852,7 +25999,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -27868,7 +26015,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -27883,9 +26030,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -27893,7 +26038,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -27904,7 +26049,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -27913,7 +26058,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -27925,7 +26070,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -27933,7 +26078,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28029,7 +26174,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28072,7 +26217,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28399,7 +26544,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -28415,7 +26560,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -28431,7 +26576,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -28447,7 +26592,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -28463,7 +26608,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -28478,9 +26623,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -28488,7 +26631,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -28499,7 +26642,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -28508,7 +26651,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -28520,7 +26663,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -28528,7 +26671,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -28624,7 +26767,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -28667,7 +26810,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -28994,7 +27137,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29010,7 +27153,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29026,7 +27169,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29042,7 +27185,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29058,7 +27201,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29073,9 +27216,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29083,7 +27224,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29094,7 +27235,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29103,7 +27244,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29115,7 +27256,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29123,7 +27264,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29219,7 +27360,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29262,7 +27403,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -29589,7 +27730,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -29605,7 +27746,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -29621,7 +27762,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -29637,7 +27778,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -29653,7 +27794,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -29668,9 +27809,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>417</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -29678,7 +27817,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -29689,7 +27828,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -29698,7 +27837,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -29710,7 +27849,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -29718,7 +27857,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -29814,7 +27953,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -29857,7 +27996,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30184,7 +28323,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30200,7 +28339,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30216,7 +28355,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30232,7 +28371,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30248,7 +28387,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30263,9 +28402,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30273,7 +28410,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30284,7 +28421,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30293,7 +28430,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30305,7 +28442,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30313,7 +28450,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -30409,7 +28546,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -30452,7 +28589,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -30779,7 +28916,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -30795,7 +28932,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -30811,7 +28948,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -30827,7 +28964,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -30843,7 +28980,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -30858,9 +28995,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>434</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -30868,7 +29003,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -30879,7 +29014,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -30888,7 +29023,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -30900,7 +29035,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -30908,7 +29043,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31004,7 +29139,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31047,7 +29182,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31374,7 +29509,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31390,7 +29525,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -31406,7 +29541,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -31422,7 +29557,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -31438,7 +29573,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -31453,9 +29588,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>442</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -31463,7 +29596,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -31474,7 +29607,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -31483,7 +29616,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -31495,7 +29628,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -31503,7 +29636,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -31599,7 +29732,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -31642,7 +29775,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -31969,7 +30102,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -31985,7 +30118,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32001,7 +30134,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32017,7 +30150,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32033,7 +30166,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32048,9 +30181,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32058,7 +30189,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32069,7 +30200,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32078,7 +30209,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32090,7 +30221,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32098,7 +30229,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -32194,7 +30325,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32237,7 +30368,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -32564,7 +30695,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -32580,7 +30711,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -32596,7 +30727,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -32612,7 +30743,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -32628,7 +30759,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -32643,9 +30774,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>126</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -32653,7 +30782,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -32664,7 +30793,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -32673,7 +30802,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -32685,7 +30814,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -32789,7 +30918,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -32832,7 +30961,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33159,7 +31288,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33175,7 +31304,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33191,7 +31320,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33207,7 +31336,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33223,7 +31352,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33238,9 +31367,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33248,7 +31375,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33259,7 +31386,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33268,7 +31395,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33280,7 +31407,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33288,7 +31415,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33384,7 +31511,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -33427,7 +31554,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -33754,7 +31881,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -33770,7 +31897,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -33786,7 +31913,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -33802,7 +31929,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -33818,7 +31945,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -33833,9 +31960,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -33843,7 +31968,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -33854,7 +31979,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -33863,7 +31988,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -33875,7 +32000,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -33883,7 +32008,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -33979,7 +32104,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34022,7 +32147,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34349,7 +32474,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34365,7 +32490,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34381,7 +32506,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34397,7 +32522,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -34413,7 +32538,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -34428,9 +32553,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -34438,7 +32561,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -34449,7 +32572,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -34458,7 +32581,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -34470,7 +32593,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -34478,7 +32601,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -34574,7 +32697,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -34617,7 +32740,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -34944,7 +33067,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -34960,7 +33083,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -34976,7 +33099,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -34992,7 +33115,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35008,7 +33131,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35023,9 +33146,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35033,7 +33154,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35044,7 +33165,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35053,7 +33174,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35065,7 +33186,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35073,7 +33194,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35169,7 +33290,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35212,7 +33333,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -35539,7 +33660,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -35555,7 +33676,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -35571,7 +33692,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -35587,7 +33708,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -35603,7 +33724,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -35618,9 +33739,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -35628,7 +33747,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -35639,7 +33758,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -35648,7 +33767,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -35660,7 +33779,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -35668,7 +33787,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -35764,7 +33883,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -35807,7 +33926,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36134,7 +34253,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36150,7 +34269,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36166,7 +34285,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -36182,7 +34301,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -36198,7 +34317,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -36213,9 +34332,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -36223,7 +34340,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -36234,7 +34351,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -36243,7 +34360,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -36255,7 +34372,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -36263,7 +34380,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -36359,7 +34476,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -36402,7 +34519,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -36785,7 +34902,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -36801,7 +34918,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -36817,7 +34934,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -36833,7 +34950,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -36849,7 +34966,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -36864,9 +34981,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -36874,7 +34989,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -36885,7 +35000,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -36894,7 +35009,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -36906,7 +35021,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -36914,7 +35029,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -37010,7 +35125,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -37053,7 +35168,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -37380,7 +35495,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -37396,7 +35511,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -37412,7 +35527,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -37428,7 +35543,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -37444,7 +35559,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -37459,9 +35574,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -37469,7 +35582,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -37480,7 +35593,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -37489,7 +35602,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -37501,7 +35614,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -37509,7 +35622,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -37605,7 +35718,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -37648,7 +35761,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -37975,7 +36088,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -37991,7 +36104,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -38007,7 +36120,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -38023,7 +36136,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -38039,7 +36152,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -38054,9 +36167,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -38064,7 +36175,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -38075,7 +36186,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -38084,7 +36195,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -38096,7 +36207,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -38104,7 +36215,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -38200,7 +36311,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -38243,7 +36354,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
